--- a/public/academics_excel/ug_semester6.xlsx
+++ b/public/academics_excel/ug_semester6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web_page\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\s417\dept_website\public\academics_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{626ABBD7-6DEB-4308-B9E4-5F36E9718A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAECD75-3C16-4C67-9FE3-745243EBFDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BE04BF7E-DDFB-4A9B-92FF-C621D209C8E2}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="21600" windowHeight="11295" xr2:uid="{BE04BF7E-DDFB-4A9B-92FF-C621D209C8E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Course No</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>DE</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -457,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4D34A1-DB9B-46FB-B56A-A184CE6A7590}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD9"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,20 +532,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
